--- a/data/pca/factorExposure/factorExposure_2017-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02268595924168549</v>
+        <v>-0.01036691992347241</v>
       </c>
       <c r="C2">
-        <v>-0.009045128875066224</v>
+        <v>0.04481073289555608</v>
       </c>
       <c r="D2">
-        <v>0.03819983112523651</v>
+        <v>0.02981415479617552</v>
       </c>
       <c r="E2">
-        <v>0.01024272759041752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03345070832777568</v>
+      </c>
+      <c r="F2">
+        <v>-0.00903596178974468</v>
+      </c>
+      <c r="G2">
+        <v>-0.09692439955167249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01748455811743687</v>
+        <v>-0.04330784247173716</v>
       </c>
       <c r="C3">
-        <v>0.02448830947581384</v>
+        <v>0.1022046989897474</v>
       </c>
       <c r="D3">
-        <v>0.1022881654370797</v>
+        <v>0.01797635398229704</v>
       </c>
       <c r="E3">
-        <v>0.05533101863769486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09976312450741108</v>
+      </c>
+      <c r="F3">
+        <v>-0.007212321159370177</v>
+      </c>
+      <c r="G3">
+        <v>-0.1903439548014307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02543398106310989</v>
+        <v>-0.05589697301322553</v>
       </c>
       <c r="C4">
-        <v>0.005989810953593323</v>
+        <v>0.06817703348929324</v>
       </c>
       <c r="D4">
-        <v>0.0897569544839977</v>
+        <v>0.0244048442496885</v>
       </c>
       <c r="E4">
-        <v>-0.007710994782257638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02709227716402704</v>
+      </c>
+      <c r="F4">
+        <v>-0.01043143742415638</v>
+      </c>
+      <c r="G4">
+        <v>-0.09659318762340971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01357638762797982</v>
+        <v>-0.03732365647181973</v>
       </c>
       <c r="C6">
-        <v>-0.009991169654681562</v>
+        <v>0.05321537142841838</v>
       </c>
       <c r="D6">
-        <v>0.0830330756693326</v>
+        <v>0.01690645890845161</v>
       </c>
       <c r="E6">
-        <v>-0.007776524194837707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03162354335290562</v>
+      </c>
+      <c r="F6">
+        <v>-0.01084271113039223</v>
+      </c>
+      <c r="G6">
+        <v>-0.0794701275966129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01182355103194774</v>
+        <v>-0.02088635354451926</v>
       </c>
       <c r="C7">
-        <v>0.002661789323526564</v>
+        <v>0.04167699184696064</v>
       </c>
       <c r="D7">
-        <v>0.04447508246727085</v>
+        <v>0.01337879318357391</v>
       </c>
       <c r="E7">
-        <v>-0.04242797251492687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004537674394518717</v>
+      </c>
+      <c r="F7">
+        <v>0.00510153087223723</v>
+      </c>
+      <c r="G7">
+        <v>-0.1258456975034832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007574302332350448</v>
+        <v>-0.003981282692557077</v>
       </c>
       <c r="C8">
-        <v>-0.0006464990465270947</v>
+        <v>0.02546881900740362</v>
       </c>
       <c r="D8">
-        <v>0.00885539638582584</v>
+        <v>0.003948480868705686</v>
       </c>
       <c r="E8">
-        <v>-0.001520036617382638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02344857226736558</v>
+      </c>
+      <c r="F8">
+        <v>-0.007037085573779789</v>
+      </c>
+      <c r="G8">
+        <v>-0.06679106320612942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01753554432413547</v>
+        <v>-0.03375956152952825</v>
       </c>
       <c r="C9">
-        <v>0.009272870089183424</v>
+        <v>0.04976126198233011</v>
       </c>
       <c r="D9">
-        <v>0.06476688135426817</v>
+        <v>0.01656421628932324</v>
       </c>
       <c r="E9">
-        <v>0.0008455888052568039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01707084046692644</v>
+      </c>
+      <c r="F9">
+        <v>-0.007509866413627518</v>
+      </c>
+      <c r="G9">
+        <v>-0.09660848215739962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03897151649064275</v>
+        <v>-0.09844318633485333</v>
       </c>
       <c r="C10">
-        <v>0.1770416547464276</v>
+        <v>-0.1810613640276392</v>
       </c>
       <c r="D10">
-        <v>-0.09304402840591329</v>
+        <v>-0.01491720567441025</v>
       </c>
       <c r="E10">
-        <v>0.0323849140601433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02083994122996244</v>
+      </c>
+      <c r="F10">
+        <v>0.02362259820420047</v>
+      </c>
+      <c r="G10">
+        <v>-0.06166035490303545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005914540194549064</v>
+        <v>-0.03509653823168599</v>
       </c>
       <c r="C11">
-        <v>-0.00162662210077024</v>
+        <v>0.05476658086023937</v>
       </c>
       <c r="D11">
-        <v>0.05774506045852174</v>
+        <v>0.002251362562928015</v>
       </c>
       <c r="E11">
-        <v>0.003726170765892072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01014373582089855</v>
+      </c>
+      <c r="F11">
+        <v>-0.02086905660329046</v>
+      </c>
+      <c r="G11">
+        <v>-0.08662494730152989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005820851195181822</v>
+        <v>-0.03676979844116478</v>
       </c>
       <c r="C12">
-        <v>0.0005917500338834135</v>
+        <v>0.0493651339745984</v>
       </c>
       <c r="D12">
-        <v>0.05158735501134933</v>
+        <v>0.006211538013721875</v>
       </c>
       <c r="E12">
-        <v>-0.01226445373941319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002683102098309045</v>
+      </c>
+      <c r="F12">
+        <v>-0.001687035119260929</v>
+      </c>
+      <c r="G12">
+        <v>-0.08142553978259982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02513072026330548</v>
+        <v>-0.01673584239405126</v>
       </c>
       <c r="C13">
-        <v>0.01178815319706355</v>
+        <v>0.0418198916612436</v>
       </c>
       <c r="D13">
-        <v>0.03875732799437509</v>
+        <v>0.02626865410973977</v>
       </c>
       <c r="E13">
-        <v>0.0221700661216501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03047307367210614</v>
+      </c>
+      <c r="F13">
+        <v>-0.006261304386097824</v>
+      </c>
+      <c r="G13">
+        <v>-0.1245293576335948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009853199888284024</v>
+        <v>-0.009091818192910451</v>
       </c>
       <c r="C14">
-        <v>0.01111532522569509</v>
+        <v>0.02980423811807337</v>
       </c>
       <c r="D14">
-        <v>0.02116981907844439</v>
+        <v>0.009889749359341917</v>
       </c>
       <c r="E14">
-        <v>0.002445931510844429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002689354685340574</v>
+      </c>
+      <c r="F14">
+        <v>0.009231685949945988</v>
+      </c>
+      <c r="G14">
+        <v>-0.1005546334705252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00213176554235924</v>
+        <v>-0.03366094928707684</v>
       </c>
       <c r="C16">
-        <v>0.005865976597595161</v>
+        <v>0.04800596877623705</v>
       </c>
       <c r="D16">
-        <v>0.04851066870989366</v>
+        <v>0.001813218164992367</v>
       </c>
       <c r="E16">
-        <v>-0.007867686000761013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009266286667442425</v>
+      </c>
+      <c r="F16">
+        <v>-0.002858450375862591</v>
+      </c>
+      <c r="G16">
+        <v>-0.08973983207513292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01511620925245579</v>
+        <v>-0.02207859983740817</v>
       </c>
       <c r="C19">
-        <v>0.007651352450225275</v>
+        <v>0.05511584967031614</v>
       </c>
       <c r="D19">
-        <v>0.0512180917054974</v>
+        <v>0.01894188589847154</v>
       </c>
       <c r="E19">
-        <v>0.002880324772560162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06921988805632438</v>
+      </c>
+      <c r="F19">
+        <v>-0.02023467694391829</v>
+      </c>
+      <c r="G19">
+        <v>-0.1343700349424418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01112355472787581</v>
+        <v>-0.01555950622227699</v>
       </c>
       <c r="C20">
-        <v>0.000966567206815385</v>
+        <v>0.04063192047686985</v>
       </c>
       <c r="D20">
-        <v>0.03731602190123012</v>
+        <v>0.01402461418232083</v>
       </c>
       <c r="E20">
-        <v>0.02718438322874094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02927999137487279</v>
+      </c>
+      <c r="F20">
+        <v>0.01348558835231636</v>
+      </c>
+      <c r="G20">
+        <v>-0.1067512223757983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01600179385473774</v>
+        <v>-0.01307421291579581</v>
       </c>
       <c r="C21">
-        <v>0.01043120137116039</v>
+        <v>0.04107725281684093</v>
       </c>
       <c r="D21">
-        <v>0.04097037147754991</v>
+        <v>0.01882543625569281</v>
       </c>
       <c r="E21">
-        <v>0.009171766883306492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04248721791532101</v>
+      </c>
+      <c r="F21">
+        <v>-0.002391173794888818</v>
+      </c>
+      <c r="G21">
+        <v>-0.1335604527468194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0008120922965445163</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002212768387848274</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0003484900421803998</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001121227864872487</v>
+      </c>
+      <c r="F22">
+        <v>-0.0008881871790335301</v>
+      </c>
+      <c r="G22">
+        <v>-0.002592780240406784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0008164290479857675</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002209432428472399</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0003486219794124087</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001126956186383527</v>
+      </c>
+      <c r="F23">
+        <v>-0.0008866813577681042</v>
+      </c>
+      <c r="G23">
+        <v>-0.002605437251751682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003699970464566725</v>
+        <v>-0.02916353984039802</v>
       </c>
       <c r="C24">
-        <v>-0.006998462795103325</v>
+        <v>0.05207547365473473</v>
       </c>
       <c r="D24">
-        <v>0.05198696976098509</v>
+        <v>0.006987603856429265</v>
       </c>
       <c r="E24">
-        <v>-0.006331729057206427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005508172140637306</v>
+      </c>
+      <c r="F24">
+        <v>-0.0119713385125127</v>
+      </c>
+      <c r="G24">
+        <v>-0.08674085803903712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01318030688883345</v>
+        <v>-0.04373274955202701</v>
       </c>
       <c r="C25">
-        <v>0.008844366448028775</v>
+        <v>0.05951533453513096</v>
       </c>
       <c r="D25">
-        <v>0.06185738113626287</v>
+        <v>0.0110360840317814</v>
       </c>
       <c r="E25">
-        <v>-0.009016957202175617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001362383243958593</v>
+      </c>
+      <c r="F25">
+        <v>-0.006359647120140753</v>
+      </c>
+      <c r="G25">
+        <v>-0.09860142103291591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02326501940577035</v>
+        <v>-0.01408874417771765</v>
       </c>
       <c r="C26">
-        <v>0.002673687270737171</v>
+        <v>0.01178858120773387</v>
       </c>
       <c r="D26">
-        <v>0.003948011910941193</v>
+        <v>0.02401808492660907</v>
       </c>
       <c r="E26">
-        <v>-0.002972986625758884</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007429560293445536</v>
+      </c>
+      <c r="F26">
+        <v>0.008913224484257005</v>
+      </c>
+      <c r="G26">
+        <v>-0.0807131470471769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.06774059330053302</v>
+        <v>-0.1247044593720156</v>
       </c>
       <c r="C28">
-        <v>0.2429323667534699</v>
+        <v>-0.237537577692007</v>
       </c>
       <c r="D28">
-        <v>-0.1169055716660002</v>
+        <v>-0.005829165472279629</v>
       </c>
       <c r="E28">
-        <v>0.004332803957554327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006116641401078926</v>
+      </c>
+      <c r="F28">
+        <v>0.01646791311570165</v>
+      </c>
+      <c r="G28">
+        <v>-0.0558653864873815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01086668187851016</v>
+        <v>-0.009918480075529928</v>
       </c>
       <c r="C29">
-        <v>0.01633482771834589</v>
+        <v>0.02348595511442186</v>
       </c>
       <c r="D29">
-        <v>0.021879828675673</v>
+        <v>0.008984718062389062</v>
       </c>
       <c r="E29">
-        <v>0.004841299143956372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001352914948287425</v>
+      </c>
+      <c r="F29">
+        <v>0.0177531141290244</v>
+      </c>
+      <c r="G29">
+        <v>-0.09424775504884715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02296482918134083</v>
+        <v>-0.04190911241594743</v>
       </c>
       <c r="C30">
-        <v>-0.01251971240689513</v>
+        <v>0.06976872612830899</v>
       </c>
       <c r="D30">
-        <v>0.1001815061509218</v>
+        <v>0.02868763766511915</v>
       </c>
       <c r="E30">
-        <v>0.03595437493303245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05254754265974135</v>
+      </c>
+      <c r="F30">
+        <v>-0.04608803111526164</v>
+      </c>
+      <c r="G30">
+        <v>-0.1097065025193139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01214133174800438</v>
+        <v>-0.05384286339100507</v>
       </c>
       <c r="C31">
-        <v>0.02867302562209289</v>
+        <v>0.0381691643754003</v>
       </c>
       <c r="D31">
-        <v>0.04090376408956738</v>
+        <v>0.003648087037199031</v>
       </c>
       <c r="E31">
-        <v>-0.0003234724835297395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.002066112047782127</v>
+      </c>
+      <c r="F31">
+        <v>0.04211858385425619</v>
+      </c>
+      <c r="G31">
+        <v>-0.09518266253525552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004428438006344753</v>
+        <v>-0.001956855918584187</v>
       </c>
       <c r="C32">
-        <v>0.0159542456022803</v>
+        <v>0.02549946663821348</v>
       </c>
       <c r="D32">
-        <v>0.01118615533105348</v>
+        <v>-0.003604314829309658</v>
       </c>
       <c r="E32">
-        <v>-0.03889879725954871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01906862210066156</v>
+      </c>
+      <c r="F32">
+        <v>-0.03750967085919117</v>
+      </c>
+      <c r="G32">
+        <v>-0.09011112646772414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01460478981138143</v>
+        <v>-0.02869213643920069</v>
       </c>
       <c r="C33">
-        <v>0.01219887497229606</v>
+        <v>0.05085377691452032</v>
       </c>
       <c r="D33">
-        <v>0.04442320486906889</v>
+        <v>0.01559650234374689</v>
       </c>
       <c r="E33">
-        <v>0.02491028766176377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03597716741117003</v>
+      </c>
+      <c r="F33">
+        <v>-0.01647591230182582</v>
+      </c>
+      <c r="G33">
+        <v>-0.1502525633628882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001892035213432709</v>
+        <v>-0.0411409568995635</v>
       </c>
       <c r="C34">
-        <v>0.0155105149154552</v>
+        <v>0.06163363980031063</v>
       </c>
       <c r="D34">
-        <v>0.06056671451589054</v>
+        <v>-0.00486520792544828</v>
       </c>
       <c r="E34">
-        <v>-0.01883109559954228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0001101023300948303</v>
+      </c>
+      <c r="F34">
+        <v>-0.0197113363814524</v>
+      </c>
+      <c r="G34">
+        <v>-0.09441203824215051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01427807782122363</v>
+        <v>-0.01650013983097577</v>
       </c>
       <c r="C36">
-        <v>0.01425898626418654</v>
+        <v>0.009912105575093077</v>
       </c>
       <c r="D36">
-        <v>0.007968288841537019</v>
+        <v>0.01227952312148045</v>
       </c>
       <c r="E36">
-        <v>-0.001818325670396121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004351221044821198</v>
+      </c>
+      <c r="F36">
+        <v>0.007364053102526558</v>
+      </c>
+      <c r="G36">
+        <v>-0.08781603016864961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0001961065322001152</v>
+        <v>-0.03232123136889421</v>
       </c>
       <c r="C38">
-        <v>0.02799179411463667</v>
+        <v>0.0316622744340542</v>
       </c>
       <c r="D38">
-        <v>0.05241180972956019</v>
+        <v>-0.007582526431004507</v>
       </c>
       <c r="E38">
-        <v>-0.007204673285042973</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002809950599145984</v>
+      </c>
+      <c r="F38">
+        <v>0.02007909455992613</v>
+      </c>
+      <c r="G38">
+        <v>-0.08306148748727936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.002005288687098828</v>
+        <v>-0.03692721679588998</v>
       </c>
       <c r="C39">
-        <v>-0.02970709326128156</v>
+        <v>0.08193388192527282</v>
       </c>
       <c r="D39">
-        <v>0.1026041375977979</v>
+        <v>0.01148967120758254</v>
       </c>
       <c r="E39">
-        <v>0.01281015960563416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02122108139272755</v>
+      </c>
+      <c r="F39">
+        <v>-0.02402860000716174</v>
+      </c>
+      <c r="G39">
+        <v>-0.0855535822552872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01282860856329658</v>
+        <v>-0.01522561475881917</v>
       </c>
       <c r="C40">
-        <v>0.007442963853035132</v>
+        <v>0.04314778209976552</v>
       </c>
       <c r="D40">
-        <v>0.04328794880639225</v>
+        <v>0.01477162418530726</v>
       </c>
       <c r="E40">
-        <v>-0.01105618543471964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01997302722950648</v>
+      </c>
+      <c r="F40">
+        <v>0.01628575465489087</v>
+      </c>
+      <c r="G40">
+        <v>-0.1227199192919216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008511952260254993</v>
+        <v>-0.02098599448330218</v>
       </c>
       <c r="C41">
-        <v>0.02176155065122068</v>
+        <v>0.002721856981750957</v>
       </c>
       <c r="D41">
-        <v>-0.009411564273233034</v>
+        <v>0.0041128677365853</v>
       </c>
       <c r="E41">
-        <v>-0.007225613851923483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002666630340069739</v>
+      </c>
+      <c r="F41">
+        <v>0.01589613337773283</v>
+      </c>
+      <c r="G41">
+        <v>-0.07630079032941214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08751283338110755</v>
+        <v>-0.009355639259750421</v>
       </c>
       <c r="C42">
-        <v>-0.04213824508133839</v>
+        <v>0.03061348528008257</v>
       </c>
       <c r="D42">
-        <v>0.1425831631833051</v>
+        <v>0.09041327917278968</v>
       </c>
       <c r="E42">
-        <v>0.3001963369950196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01818310343859763</v>
+      </c>
+      <c r="F42">
+        <v>0.03664166552180602</v>
+      </c>
+      <c r="G42">
+        <v>0.0996735045268575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009886557091069599</v>
+        <v>-0.03500476628116049</v>
       </c>
       <c r="C43">
-        <v>0.02433147155854899</v>
+        <v>0.01883206235971875</v>
       </c>
       <c r="D43">
-        <v>-0.003693449737555348</v>
+        <v>0.005897697676026441</v>
       </c>
       <c r="E43">
-        <v>-0.0103981650333761</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01670349418896739</v>
+      </c>
+      <c r="F43">
+        <v>0.005224140536440701</v>
+      </c>
+      <c r="G43">
+        <v>-0.1126866924736027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00301713592140927</v>
+        <v>-0.01331087916107189</v>
       </c>
       <c r="C44">
-        <v>-0.001021166082274938</v>
+        <v>0.06020154774329549</v>
       </c>
       <c r="D44">
-        <v>0.05794525553919423</v>
+        <v>0.006702786818362888</v>
       </c>
       <c r="E44">
-        <v>-0.007681678532752675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01833099864661401</v>
+      </c>
+      <c r="F44">
+        <v>0.008903253522467229</v>
+      </c>
+      <c r="G44">
+        <v>-0.102526930932912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01217676906785947</v>
+        <v>-0.008028799606154765</v>
       </c>
       <c r="C46">
-        <v>0.009384694241491836</v>
+        <v>0.01810344257631707</v>
       </c>
       <c r="D46">
-        <v>0.007825681293696736</v>
+        <v>0.01269044886289752</v>
       </c>
       <c r="E46">
-        <v>0.01106191392515152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001436730570736417</v>
+      </c>
+      <c r="F46">
+        <v>0.01705820766480314</v>
+      </c>
+      <c r="G46">
+        <v>-0.09801732601105921</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007577244587985435</v>
+        <v>-0.07804469644219308</v>
       </c>
       <c r="C47">
-        <v>0.03697204587296862</v>
+        <v>0.06739407553590103</v>
       </c>
       <c r="D47">
-        <v>0.07810107978160069</v>
+        <v>-0.005111831751375448</v>
       </c>
       <c r="E47">
-        <v>-0.01230421976405153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006922151125508833</v>
+      </c>
+      <c r="F47">
+        <v>0.05615390266338391</v>
+      </c>
+      <c r="G47">
+        <v>-0.08320753194997076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005565313639486118</v>
+        <v>-0.01981843285708003</v>
       </c>
       <c r="C48">
-        <v>0.01780332262643895</v>
+        <v>0.01316151454868391</v>
       </c>
       <c r="D48">
-        <v>0.02088415718196917</v>
+        <v>0.001904477321429934</v>
       </c>
       <c r="E48">
-        <v>0.003759370420811676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002280196951423157</v>
+      </c>
+      <c r="F48">
+        <v>0.02047126196476356</v>
+      </c>
+      <c r="G48">
+        <v>-0.09067006276554813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01000193206767625</v>
+        <v>-0.07561975776848667</v>
       </c>
       <c r="C50">
-        <v>0.0397223925723364</v>
+        <v>0.07242931303500796</v>
       </c>
       <c r="D50">
-        <v>0.07486295747328872</v>
+        <v>-0.002499250251061424</v>
       </c>
       <c r="E50">
-        <v>-0.02770039864153636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.006815988398951115</v>
+      </c>
+      <c r="F50">
+        <v>0.05660925946505417</v>
+      </c>
+      <c r="G50">
+        <v>-0.09511889833645928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008367431073277729</v>
+        <v>-0.01496276001690446</v>
       </c>
       <c r="C51">
-        <v>0.009345998046949628</v>
+        <v>0.03731046422376502</v>
       </c>
       <c r="D51">
-        <v>0.02530716184347084</v>
+        <v>0.01033934902278739</v>
       </c>
       <c r="E51">
-        <v>-0.005082474605483809</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0185941403982437</v>
+      </c>
+      <c r="F51">
+        <v>-0.02215750590003174</v>
+      </c>
+      <c r="G51">
+        <v>-0.1211400017971534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01053932711286036</v>
+        <v>-0.08225327939352516</v>
       </c>
       <c r="C53">
-        <v>0.03707914124334779</v>
+        <v>0.08568582263155167</v>
       </c>
       <c r="D53">
-        <v>0.1311939270014322</v>
+        <v>-0.003525804423544505</v>
       </c>
       <c r="E53">
-        <v>-0.02155238271258837</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02481119584809759</v>
+      </c>
+      <c r="F53">
+        <v>0.06656438606156345</v>
+      </c>
+      <c r="G53">
+        <v>-0.08467644904759639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.006423858876790372</v>
+        <v>-0.03251163401194393</v>
       </c>
       <c r="C54">
-        <v>0.0398582618106535</v>
+        <v>0.01832474091151242</v>
       </c>
       <c r="D54">
-        <v>0.003267650246210679</v>
+        <v>-0.001614014007696456</v>
       </c>
       <c r="E54">
-        <v>0.01582289246718607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01342456139434654</v>
+      </c>
+      <c r="F54">
+        <v>0.005932241487989033</v>
+      </c>
+      <c r="G54">
+        <v>-0.1017452327598712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005829848043297116</v>
+        <v>-0.0723259442041015</v>
       </c>
       <c r="C55">
-        <v>0.02475669035439712</v>
+        <v>0.06898718725535467</v>
       </c>
       <c r="D55">
-        <v>0.107386844108147</v>
+        <v>-0.005112744463953689</v>
       </c>
       <c r="E55">
-        <v>-0.007533364916618697</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02204628478662188</v>
+      </c>
+      <c r="F55">
+        <v>0.06351421782431114</v>
+      </c>
+      <c r="G55">
+        <v>-0.06065642615871637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01097802868473068</v>
+        <v>-0.1378441236925375</v>
       </c>
       <c r="C56">
-        <v>0.05640118541984008</v>
+        <v>0.1080239439061761</v>
       </c>
       <c r="D56">
-        <v>0.1625611302542045</v>
+        <v>-0.01267474043694547</v>
       </c>
       <c r="E56">
-        <v>-0.02829443029086546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03091423867618772</v>
+      </c>
+      <c r="F56">
+        <v>0.08156921433896158</v>
+      </c>
+      <c r="G56">
+        <v>-0.03399736803787402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0250628487473304</v>
+        <v>-0.006640106078410791</v>
       </c>
       <c r="C57">
-        <v>0.00384782500817576</v>
+        <v>0.008602050713713906</v>
       </c>
       <c r="D57">
-        <v>0.04326405065384382</v>
+        <v>0.02350414892245318</v>
       </c>
       <c r="E57">
-        <v>0.03733198238926894</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02552506346194998</v>
+      </c>
+      <c r="F57">
+        <v>-0.01115349204268747</v>
+      </c>
+      <c r="G57">
+        <v>-0.0308133097003069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01244538969660319</v>
+        <v>-0.05334278325657274</v>
       </c>
       <c r="C58">
-        <v>0.0289287753785107</v>
+        <v>0.05254780544960756</v>
       </c>
       <c r="D58">
-        <v>0.1449062288950612</v>
+        <v>0.02424815723379587</v>
       </c>
       <c r="E58">
-        <v>0.8161786204916794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9357741744110762</v>
+      </c>
+      <c r="F58">
+        <v>0.2225670264022967</v>
+      </c>
+      <c r="G58">
+        <v>0.1639337338414325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0692227541232463</v>
+        <v>-0.1596163613719758</v>
       </c>
       <c r="C59">
-        <v>0.2671046405271625</v>
+        <v>-0.2037142811855477</v>
       </c>
       <c r="D59">
-        <v>-0.1011450688329415</v>
+        <v>-0.01124029995667753</v>
       </c>
       <c r="E59">
-        <v>-0.01204853890593592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01845184656745991</v>
+      </c>
+      <c r="F59">
+        <v>0.000172238978921482</v>
+      </c>
+      <c r="G59">
+        <v>-0.04441957407869421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06174853640439962</v>
+        <v>-0.2874800306209039</v>
       </c>
       <c r="C60">
-        <v>0.1596689888366053</v>
+        <v>0.1047500017122538</v>
       </c>
       <c r="D60">
-        <v>0.1398834977976389</v>
+        <v>0.0114093904223941</v>
       </c>
       <c r="E60">
-        <v>-0.05980840980029743</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00964736165338464</v>
+      </c>
+      <c r="F60">
+        <v>-0.3427367124158049</v>
+      </c>
+      <c r="G60">
+        <v>0.1489863965894062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002970783891805327</v>
+        <v>-0.03845009687401892</v>
       </c>
       <c r="C61">
-        <v>-0.002948030319366248</v>
+        <v>0.06729283950904628</v>
       </c>
       <c r="D61">
-        <v>0.07654436941706794</v>
+        <v>0.005234335842383856</v>
       </c>
       <c r="E61">
-        <v>-0.005689542209379841</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01374107640741333</v>
+      </c>
+      <c r="F61">
+        <v>-0.01532593226602963</v>
+      </c>
+      <c r="G61">
+        <v>-0.09100843310780447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008792754724873878</v>
+        <v>-0.0156550922984195</v>
       </c>
       <c r="C63">
-        <v>0.003971372642175159</v>
+        <v>0.03092889272988913</v>
       </c>
       <c r="D63">
-        <v>0.02981230996855</v>
+        <v>0.008451836273077837</v>
       </c>
       <c r="E63">
-        <v>-0.01205955731985095</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001332300093478509</v>
+      </c>
+      <c r="F63">
+        <v>0.01827988197467876</v>
+      </c>
+      <c r="G63">
+        <v>-0.09329042739940437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01125956130893006</v>
+        <v>-0.04807160667825511</v>
       </c>
       <c r="C64">
-        <v>0.02201484139946569</v>
+        <v>0.04751642010934562</v>
       </c>
       <c r="D64">
-        <v>0.06426125953917294</v>
+        <v>0.006065336972575348</v>
       </c>
       <c r="E64">
-        <v>-0.005229778588766801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001532915039265848</v>
+      </c>
+      <c r="F64">
+        <v>-0.006071267030614599</v>
+      </c>
+      <c r="G64">
+        <v>-0.08784764167537629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01783138902526232</v>
+        <v>-0.07528502778146964</v>
       </c>
       <c r="C65">
-        <v>-0.003636228553985498</v>
+        <v>0.05987673273218311</v>
       </c>
       <c r="D65">
-        <v>0.1094949887148055</v>
+        <v>0.0164232760929642</v>
       </c>
       <c r="E65">
-        <v>-0.02585922417917717</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03259741606280726</v>
+      </c>
+      <c r="F65">
+        <v>-0.03116649538524454</v>
+      </c>
+      <c r="G65">
+        <v>-0.03383340327148484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002522426115362417</v>
+        <v>-0.05207750077900006</v>
       </c>
       <c r="C66">
-        <v>-0.0273280277849953</v>
+        <v>0.1098565369933366</v>
       </c>
       <c r="D66">
-        <v>0.136801615002266</v>
+        <v>0.01150733650549675</v>
       </c>
       <c r="E66">
-        <v>0.006459003774542551</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03052099654042093</v>
+      </c>
+      <c r="F66">
+        <v>-0.03593261797428231</v>
+      </c>
+      <c r="G66">
+        <v>-0.1025984656429186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.008445256053552787</v>
+        <v>-0.0553650150054616</v>
       </c>
       <c r="C67">
-        <v>0.04707431864614743</v>
+        <v>0.03512198891340525</v>
       </c>
       <c r="D67">
-        <v>0.06987011280749637</v>
+        <v>-0.005936753072403277</v>
       </c>
       <c r="E67">
-        <v>-0.009992681098368679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003755426075570151</v>
+      </c>
+      <c r="F67">
+        <v>0.01898435038863292</v>
+      </c>
+      <c r="G67">
+        <v>-0.07492419197972894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.08358412811142724</v>
+        <v>-0.1532928464613359</v>
       </c>
       <c r="C68">
-        <v>0.2485903711098422</v>
+        <v>-0.2696474463015076</v>
       </c>
       <c r="D68">
-        <v>-0.1501466445156718</v>
+        <v>0.006344123276806403</v>
       </c>
       <c r="E68">
-        <v>0.02736049889370254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01319603040066418</v>
+      </c>
+      <c r="F68">
+        <v>0.03270302211847489</v>
+      </c>
+      <c r="G68">
+        <v>-0.03436868305693911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00336038693310904</v>
+        <v>-0.08288093681445462</v>
       </c>
       <c r="C69">
-        <v>0.03372857604256199</v>
+        <v>0.07100904070152543</v>
       </c>
       <c r="D69">
-        <v>0.08196393026652921</v>
+        <v>-0.009054551503273483</v>
       </c>
       <c r="E69">
-        <v>-0.02467372503728286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0232708723108299</v>
+      </c>
+      <c r="F69">
+        <v>0.03788139907908894</v>
+      </c>
+      <c r="G69">
+        <v>-0.0943826222869837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.06393812989215375</v>
+        <v>-0.1394466091850305</v>
       </c>
       <c r="C71">
-        <v>0.211096148507282</v>
+        <v>-0.2280855222845473</v>
       </c>
       <c r="D71">
-        <v>-0.09778363335740374</v>
+        <v>-0.002341415316876728</v>
       </c>
       <c r="E71">
-        <v>0.02886835208041236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03365025527681508</v>
+      </c>
+      <c r="F71">
+        <v>0.01925947269704284</v>
+      </c>
+      <c r="G71">
+        <v>-0.07054407605935156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0008755244282010568</v>
+        <v>-0.08478828880975363</v>
       </c>
       <c r="C72">
-        <v>0.02506956771870142</v>
+        <v>0.07187984401918726</v>
       </c>
       <c r="D72">
-        <v>0.1076370574223376</v>
+        <v>-0.008425661914772675</v>
       </c>
       <c r="E72">
-        <v>-0.03480167891476292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005346915497539463</v>
+      </c>
+      <c r="F72">
+        <v>-0.03894390810286439</v>
+      </c>
+      <c r="G72">
+        <v>-0.08346272947619778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.07555864109109625</v>
+        <v>-0.3765790590218822</v>
       </c>
       <c r="C73">
-        <v>0.170435242259272</v>
+        <v>0.1150731057164992</v>
       </c>
       <c r="D73">
-        <v>0.2592814977058508</v>
+        <v>0.0201968656182232</v>
       </c>
       <c r="E73">
-        <v>-0.02991357281768875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06109396117042431</v>
+      </c>
+      <c r="F73">
+        <v>-0.5804758462634183</v>
+      </c>
+      <c r="G73">
+        <v>0.2633729120523171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.009299279466690048</v>
+        <v>-0.1055773188480536</v>
       </c>
       <c r="C74">
-        <v>0.05150595037429112</v>
+        <v>0.1090588500171569</v>
       </c>
       <c r="D74">
-        <v>0.1745050861027245</v>
+        <v>-0.009490963671874245</v>
       </c>
       <c r="E74">
-        <v>-0.01777355657135834</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.006993953243693109</v>
+      </c>
+      <c r="F74">
+        <v>0.06969808724813467</v>
+      </c>
+      <c r="G74">
+        <v>-0.07655449473933998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0250000720169043</v>
+        <v>-0.2491098486399894</v>
       </c>
       <c r="C75">
-        <v>0.1302565844320878</v>
+        <v>0.1500844744580958</v>
       </c>
       <c r="D75">
-        <v>0.300686490189511</v>
+        <v>-0.03089818837922018</v>
       </c>
       <c r="E75">
-        <v>-0.0373095910455054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05527411921035567</v>
+      </c>
+      <c r="F75">
+        <v>0.177561375334804</v>
+      </c>
+      <c r="G75">
+        <v>0.03288983172390823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.007384057061419931</v>
+        <v>-0.1203071971640508</v>
       </c>
       <c r="C76">
-        <v>0.07065278480017635</v>
+        <v>0.1097485403745211</v>
       </c>
       <c r="D76">
-        <v>0.2219501835180608</v>
+        <v>-0.01873660563300836</v>
       </c>
       <c r="E76">
-        <v>-0.05359999318532286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02960769155564875</v>
+      </c>
+      <c r="F76">
+        <v>0.1113904834973432</v>
+      </c>
+      <c r="G76">
+        <v>-0.05633762684356305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0157992309123655</v>
+        <v>-0.06813354353580063</v>
       </c>
       <c r="C77">
-        <v>0.01549019020604066</v>
+        <v>0.05874081129132332</v>
       </c>
       <c r="D77">
-        <v>0.0663151676092784</v>
+        <v>0.01107637339666356</v>
       </c>
       <c r="E77">
-        <v>0.01601657902083907</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0411703591896121</v>
+      </c>
+      <c r="F77">
+        <v>-0.01520684692865241</v>
+      </c>
+      <c r="G77">
+        <v>-0.05810132036863112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004828130291629999</v>
+        <v>-0.04215695418659742</v>
       </c>
       <c r="C78">
-        <v>0.002718093433332245</v>
+        <v>0.05133882775084429</v>
       </c>
       <c r="D78">
-        <v>0.05835249485575945</v>
+        <v>0.005382626942839496</v>
       </c>
       <c r="E78">
-        <v>0.01098324850407293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02176643051014956</v>
+      </c>
+      <c r="F78">
+        <v>-0.03670691299786955</v>
+      </c>
+      <c r="G78">
+        <v>-0.08865767888661785</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01313344059634178</v>
+        <v>-0.04394820526390523</v>
       </c>
       <c r="C80">
-        <v>0.01502314747548871</v>
+        <v>0.07330691153255604</v>
       </c>
       <c r="D80">
-        <v>0.1567032679679645</v>
+        <v>0.01041642241605854</v>
       </c>
       <c r="E80">
-        <v>-0.4133529354804823</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03840368228605594</v>
+      </c>
+      <c r="F80">
+        <v>-0.009761602580095091</v>
+      </c>
+      <c r="G80">
+        <v>-0.2721341977321672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0161024742640563</v>
+        <v>-0.1386740605983414</v>
       </c>
       <c r="C81">
-        <v>0.07881939314209471</v>
+        <v>0.09549038050966058</v>
       </c>
       <c r="D81">
-        <v>0.1801674438835085</v>
+        <v>-0.01512602915184078</v>
       </c>
       <c r="E81">
-        <v>-0.04108884414689416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03357874093571833</v>
+      </c>
+      <c r="F81">
+        <v>0.1312403383322734</v>
+      </c>
+      <c r="G81">
+        <v>-0.02353533552766207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1293885391491691</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07437954941729137</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008744664730639975</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09047801893076342</v>
+      </c>
+      <c r="F82">
+        <v>0.0477879600635541</v>
+      </c>
+      <c r="G82">
+        <v>-0.05285039734869965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008805007138863659</v>
+        <v>-0.03678320964253898</v>
       </c>
       <c r="C83">
-        <v>0.01602292166142657</v>
+        <v>0.03060775013414988</v>
       </c>
       <c r="D83">
-        <v>0.04028911729564445</v>
+        <v>0.005738728890732367</v>
       </c>
       <c r="E83">
-        <v>0.01722422303895194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02752504459361569</v>
+      </c>
+      <c r="F83">
+        <v>-0.03108380482995335</v>
+      </c>
+      <c r="G83">
+        <v>-0.06054418964144723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02770601232309063</v>
+        <v>-0.2136798493940133</v>
       </c>
       <c r="C85">
-        <v>0.09205604799963138</v>
+        <v>0.143708305795524</v>
       </c>
       <c r="D85">
-        <v>0.2657255505691337</v>
+        <v>-0.0179218954592343</v>
       </c>
       <c r="E85">
-        <v>-0.04529405588728738</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09460599494211827</v>
+      </c>
+      <c r="F85">
+        <v>0.1323189356098797</v>
+      </c>
+      <c r="G85">
+        <v>0.0936761334735991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0108392469852094</v>
+        <v>-0.01404304337397064</v>
       </c>
       <c r="C86">
-        <v>0.01798570720527248</v>
+        <v>0.03014987026017077</v>
       </c>
       <c r="D86">
-        <v>0.06633045919731592</v>
+        <v>0.01241447289812786</v>
       </c>
       <c r="E86">
-        <v>0.03022628543820312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04909232903220266</v>
+      </c>
+      <c r="F86">
+        <v>-0.03177002409015057</v>
+      </c>
+      <c r="G86">
+        <v>-0.1866995862337621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006834693228020622</v>
+        <v>-0.02280990814815217</v>
       </c>
       <c r="C87">
-        <v>-0.007727543183641958</v>
+        <v>0.02409928024501555</v>
       </c>
       <c r="D87">
-        <v>0.05466261468856962</v>
+        <v>0.01171647437225289</v>
       </c>
       <c r="E87">
-        <v>0.03021099360438987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08583674737557206</v>
+      </c>
+      <c r="F87">
+        <v>-0.01400534196211469</v>
+      </c>
+      <c r="G87">
+        <v>-0.1166100610442842</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03185264922188879</v>
+        <v>-0.09376519227455908</v>
       </c>
       <c r="C88">
-        <v>0.02898063434036292</v>
+        <v>0.06779530518946089</v>
       </c>
       <c r="D88">
-        <v>0.06238685215993011</v>
+        <v>0.02215196605759627</v>
       </c>
       <c r="E88">
-        <v>-0.004184568262021868</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007744710277832302</v>
+      </c>
+      <c r="F88">
+        <v>0.02003010002293737</v>
+      </c>
+      <c r="G88">
+        <v>-0.08342408821508086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1224552461356701</v>
+        <v>-0.231463780770112</v>
       </c>
       <c r="C89">
-        <v>0.397706754439419</v>
+        <v>-0.3675351269223736</v>
       </c>
       <c r="D89">
-        <v>-0.1784503245640887</v>
+        <v>0.0005294294368457432</v>
       </c>
       <c r="E89">
-        <v>-0.02590727815925475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01286795678693134</v>
+      </c>
+      <c r="F89">
+        <v>0.02506050549529124</v>
+      </c>
+      <c r="G89">
+        <v>-0.06714129342880905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.09592355273433048</v>
+        <v>-0.2067835729442847</v>
       </c>
       <c r="C90">
-        <v>0.3188165452430696</v>
+        <v>-0.3200144778138267</v>
       </c>
       <c r="D90">
-        <v>-0.1663155383449324</v>
+        <v>-0.004201846304681923</v>
       </c>
       <c r="E90">
-        <v>0.007357732557649987</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002516339441765604</v>
+      </c>
+      <c r="F90">
+        <v>0.0534304755864774</v>
+      </c>
+      <c r="G90">
+        <v>-0.03711971232580368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01927530575942895</v>
+        <v>-0.1869892978648453</v>
       </c>
       <c r="C91">
-        <v>0.1113646265799452</v>
+        <v>0.1383401573985137</v>
       </c>
       <c r="D91">
-        <v>0.2246707558460567</v>
+        <v>-0.02224134646235762</v>
       </c>
       <c r="E91">
-        <v>-0.04343623101533562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05875093790954434</v>
+      </c>
+      <c r="F91">
+        <v>0.1446685501164136</v>
+      </c>
+      <c r="G91">
+        <v>-0.02309201321413382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.06212949096950823</v>
+        <v>-0.1990199947590789</v>
       </c>
       <c r="C92">
-        <v>0.315467559775464</v>
+        <v>-0.2569085748265151</v>
       </c>
       <c r="D92">
-        <v>-0.06235078443425398</v>
+        <v>-0.03780277283435227</v>
       </c>
       <c r="E92">
-        <v>0.06124469758365274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03842377392233386</v>
+      </c>
+      <c r="F92">
+        <v>0.05970057864257478</v>
+      </c>
+      <c r="G92">
+        <v>-0.130113419086112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.09637175036894831</v>
+        <v>-0.231604687559754</v>
       </c>
       <c r="C93">
-        <v>0.3397421891981435</v>
+        <v>-0.3157141372223402</v>
       </c>
       <c r="D93">
-        <v>-0.1335960443645414</v>
+        <v>-0.01107687769495877</v>
       </c>
       <c r="E93">
-        <v>0.02559377878921618</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009172497519588622</v>
+      </c>
+      <c r="F93">
+        <v>0.0411319264123516</v>
+      </c>
+      <c r="G93">
+        <v>-0.05058085907292668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.05553399009523032</v>
+        <v>-0.3159684390102471</v>
       </c>
       <c r="C94">
-        <v>0.1629216810043149</v>
+        <v>0.1733448251555349</v>
       </c>
       <c r="D94">
-        <v>0.2712876505481907</v>
+        <v>-0.01753062994803301</v>
       </c>
       <c r="E94">
-        <v>-0.09447675234696086</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1722753560929752</v>
+      </c>
+      <c r="F94">
+        <v>0.4814655234031249</v>
+      </c>
+      <c r="G94">
+        <v>0.413213135990814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001551559474801401</v>
+        <v>-0.1019261642366253</v>
       </c>
       <c r="C95">
-        <v>0.02729117857219024</v>
+        <v>0.08669542861465664</v>
       </c>
       <c r="D95">
-        <v>0.1210840934438843</v>
+        <v>-0.01107292275831969</v>
       </c>
       <c r="E95">
-        <v>0.133960928212097</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06935953390451653</v>
+      </c>
+      <c r="F95">
+        <v>-0.2015920236340869</v>
+      </c>
+      <c r="G95">
+        <v>0.09117875801886775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.0298529746927815</v>
+        <v>-0.1977784427878318</v>
       </c>
       <c r="C98">
-        <v>0.1446001800302865</v>
+        <v>0.04522516353816267</v>
       </c>
       <c r="D98">
-        <v>0.1536819067181766</v>
+        <v>-0.01342382708311169</v>
       </c>
       <c r="E98">
-        <v>0.03864520518969481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06422105765565239</v>
+      </c>
+      <c r="F98">
+        <v>-0.2407789991170045</v>
+      </c>
+      <c r="G98">
+        <v>0.00390002074993207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01066069775656522</v>
+        <v>-0.009699157855725511</v>
       </c>
       <c r="C101">
-        <v>0.01617232458785495</v>
+        <v>0.02351074311715365</v>
       </c>
       <c r="D101">
-        <v>0.02178326048747268</v>
+        <v>0.008830527168922074</v>
       </c>
       <c r="E101">
-        <v>0.00455712181005396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001233499677120312</v>
+      </c>
+      <c r="F101">
+        <v>0.01869690654243246</v>
+      </c>
+      <c r="G101">
+        <v>-0.09328297331937482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0213660120098816</v>
+        <v>-0.1175044161777516</v>
       </c>
       <c r="C102">
-        <v>0.04628299495295077</v>
+        <v>0.08282725175563092</v>
       </c>
       <c r="D102">
-        <v>0.1285731196567385</v>
+        <v>0.0006122302323517622</v>
       </c>
       <c r="E102">
-        <v>-0.0228931976831644</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0342896273598698</v>
+      </c>
+      <c r="F102">
+        <v>0.04204671715241517</v>
+      </c>
+      <c r="G102">
+        <v>-0.008448565180485021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9524628038210015</v>
+        <v>-0.02104842069131946</v>
       </c>
       <c r="C104">
-        <v>-0.2718695222165734</v>
+        <v>-0.02919253459782881</v>
       </c>
       <c r="D104">
-        <v>-0.03477301271918849</v>
+        <v>0.9877901536503042</v>
       </c>
       <c r="E104">
-        <v>-0.02861416451918756</v>
+        <v>-0.04712115001785228</v>
+      </c>
+      <c r="F104">
+        <v>0.03584196618624311</v>
+      </c>
+      <c r="G104">
+        <v>0.03442261488460365</v>
       </c>
     </row>
   </sheetData>
